--- a/around_30.xlsx
+++ b/around_30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{310BABBE-DCD8-4E12-B918-667F024EE8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDD0921E-56FC-4AFF-9761-ED00341C099C}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{310BABBE-DCD8-4E12-B918-667F024EE8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B9F9FA-E0C8-418A-90D6-B64A15C4EE58}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="360" windowWidth="17805" windowHeight="13575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3750" yWindow="450" windowWidth="17805" windowHeight="13575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -636,6 +636,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8473,10 +8474,14 @@
   <dimension ref="A1:EK102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U57" sqref="U57:V58"/>
+      <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
@@ -12206,27 +12211,27 @@
       <c r="O51" s="3">
         <v>95</v>
       </c>
-      <c r="Q51" s="15">
-        <v>-0.30399999999999999</v>
+      <c r="Q51" s="16">
+        <v>-0.30400431175560499</v>
       </c>
       <c r="R51">
         <f>Q51*SQRT(68)/SQRT(1-Q51^2)</f>
-        <v>-2.6313863921031282</v>
+        <v>-2.6314275145821084</v>
       </c>
       <c r="S51">
         <f>TDIST(ABS(R51),68,2)</f>
-        <v>1.0512086348776374E-2</v>
-      </c>
-      <c r="T51" s="15">
-        <v>-0.53400000000000003</v>
+        <v>1.051093423129636E-2</v>
+      </c>
+      <c r="T51" s="16">
+        <v>-0.52011701047536674</v>
       </c>
       <c r="U51">
         <f>T51*SQRT(68)/SQRT(1-T51^2)</f>
-        <v>-5.2082290456663358</v>
+        <v>-5.0216833796741618</v>
       </c>
       <c r="V51">
         <f>TDIST(ABS(U51),68,2)</f>
-        <v>1.929040889523278E-6</v>
+        <v>3.9356067946810949E-6</v>
       </c>
       <c r="X51" s="13" t="s">
         <v>86</v>
@@ -12355,27 +12360,26 @@
         <v>85</v>
       </c>
       <c r="Q53" s="15">
-        <v>-0.4</v>
+        <v>-0.42682043140113851</v>
       </c>
       <c r="R53">
         <f>Q53*SQRT(68)/SQRT(1-Q53^2)</f>
-        <v>-3.5989416433697494</v>
+        <v>-3.8919714549731852</v>
       </c>
       <c r="S53">
         <f>TDIST(ABS(R53),68,2)</f>
-        <v>6.0178671955824034E-4</v>
-      </c>
-      <c r="T53" s="15">
-        <f xml:space="preserve">  -0.572</f>
-        <v>-0.57199999999999995</v>
+        <v>2.2899480256845594E-4</v>
+      </c>
+      <c r="T53" s="16">
+        <v>-0.59219588896871667</v>
       </c>
       <c r="U53">
         <f>T53*SQRT(68)/SQRT(1-T53^2)</f>
-        <v>-5.7504565961481662</v>
+        <v>-6.0603233357262036</v>
       </c>
       <c r="V53">
         <f>TDIST(ABS(U53),68,2)</f>
-        <v>2.3078675650183095E-7</v>
+        <v>6.66851383270766E-8</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.15">
@@ -12536,27 +12540,27 @@
       <c r="O56" s="3">
         <v>80</v>
       </c>
-      <c r="Q56" s="15">
-        <v>-0.588734624235977</v>
+      <c r="Q56">
+        <v>-0.59776547628709165</v>
       </c>
       <c r="R56">
         <f>Q56*SQRT(68)/SQRT(1-Q56^2)</f>
-        <v>-6.0060269980065391</v>
+        <v>-6.1487820200569008</v>
       </c>
       <c r="S56">
         <f>TDIST(ABS(R56),68,2)</f>
-        <v>8.2995211525797814E-8</v>
-      </c>
-      <c r="T56" s="15">
-        <v>-0.58968911613817199</v>
+        <v>4.6640372588737601E-8</v>
+      </c>
+      <c r="T56" s="16">
+        <v>-0.59948191441893961</v>
       </c>
       <c r="U56">
         <f>T56*SQRT(68)/SQRT(1-T56^2)</f>
-        <v>-6.0209490123434399</v>
+        <v>-6.176320286115681</v>
       </c>
       <c r="V56">
         <f>TDIST(ABS(U56),68,2)</f>
-        <v>7.8155551598504257E-8</v>
+        <v>4.1717146617320976E-8</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.15">
@@ -12671,26 +12675,26 @@
         <v>75</v>
       </c>
       <c r="Q58" s="15">
-        <v>-0.58655323855902597</v>
+        <v>-0.59551589179558861</v>
       </c>
       <c r="R58">
         <f>Q58*SQRT(68)/SQRT(1-Q58^2)</f>
-        <v>-5.9720683726534656</v>
+        <v>-6.1128890458812073</v>
       </c>
       <c r="S58">
         <f>TDIST(ABS(R58),68,2)</f>
-        <v>9.5141850291405887E-8</v>
+        <v>5.3929895444947747E-8</v>
       </c>
       <c r="T58" s="15">
-        <v>-0.55701374331563702</v>
+        <v>-0.55535415171528557</v>
       </c>
       <c r="U58">
         <f>T58*SQRT(68)/SQRT(1-T58^2)</f>
-        <v>-5.5306861942429872</v>
+        <v>-5.5068432172548478</v>
       </c>
       <c r="V58">
         <f>TDIST(ABS(U58),68,2)</f>
-        <v>5.5026392197640827E-7</v>
+        <v>6.0426977335844838E-7</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.15">
